--- a/contacts_transporteurs.xlsx
+++ b/contacts_transporteurs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\izyGO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE34733-461E-43DA-BF97-C3C2F011CC12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB3EEDF-BFA9-4614-80C1-B60B5A43F2DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -128,9 +128,6 @@
     <t>(225) 78 71 58 38</t>
   </si>
   <si>
-    <t>FACEBOOK : AT TRANSPORT</t>
-  </si>
-  <si>
     <t xml:space="preserve">ABIDJAN, AGNIBILEKROU, ABOISSO </t>
   </si>
   <si>
@@ -156,6 +153,9 @@
   </si>
   <si>
     <t>Facebook : express du ranch</t>
+  </si>
+  <si>
+    <t>FACebook : AT transport</t>
   </si>
 </sst>
 </file>
@@ -215,7 +215,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -223,22 +223,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -582,7 +576,8 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -591,220 +586,257 @@
     <col min="2" max="2" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="79.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="79" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="88.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="7" t="s">
+      <c r="D3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="3" t="s">
+    </row>
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="3" t="s">
+    </row>
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>40</v>
-      </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>4</v>
-      </c>
+      <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="7">
+      <c r="B7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4">
         <v>22555510403</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="7">
+      <c r="B8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="4">
         <v>22544912023</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>25</v>
       </c>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="7">
+      <c r="B12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="4">
         <v>22577626911</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>27</v>
       </c>
+      <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="7" t="s">
+      <c r="B14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>28</v>
       </c>
+      <c r="E14" s="6"/>
     </row>
     <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
     </row>
     <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="7" t="s">
+      <c r="B17" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="7">
+      <c r="B19" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="4">
         <v>22577601570</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="4" t="s">
         <v>27</v>
       </c>
+      <c r="E19" s="6"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D19">
